--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H2">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I2">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J2">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N2">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O2">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P2">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q2">
-        <v>355.8409859311259</v>
+        <v>373.903183246002</v>
       </c>
       <c r="R2">
-        <v>355.8409859311259</v>
+        <v>3365.128649214018</v>
       </c>
       <c r="S2">
-        <v>0.06662937870238712</v>
+        <v>0.06337585675847733</v>
       </c>
       <c r="T2">
-        <v>0.06662937870238712</v>
+        <v>0.07771073130681942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H3">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I3">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J3">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N3">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P3">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q3">
-        <v>78.89864036033931</v>
+        <v>89.41831282824501</v>
       </c>
       <c r="R3">
-        <v>78.89864036033931</v>
+        <v>804.7648154542049</v>
       </c>
       <c r="S3">
-        <v>0.01477336112341481</v>
+        <v>0.01515622877609766</v>
       </c>
       <c r="T3">
-        <v>0.01477336112341481</v>
+        <v>0.01858438973902256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H4">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I4">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J4">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N4">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O4">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P4">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q4">
-        <v>11.66663992278839</v>
+        <v>13.247946722739</v>
       </c>
       <c r="R4">
-        <v>11.66663992278839</v>
+        <v>119.231520504651</v>
       </c>
       <c r="S4">
-        <v>0.002184517805237625</v>
+        <v>0.002245501005247789</v>
       </c>
       <c r="T4">
-        <v>0.002184517805237625</v>
+        <v>0.00275340696273368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H5">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I5">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J5">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N5">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O5">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P5">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q5">
-        <v>8.296445248154075</v>
+        <v>9.170351087588665</v>
       </c>
       <c r="R5">
-        <v>8.296445248154075</v>
+        <v>82.53315978829799</v>
       </c>
       <c r="S5">
-        <v>0.001553466335184535</v>
+        <v>0.001554356536648128</v>
       </c>
       <c r="T5">
-        <v>0.001553466335184535</v>
+        <v>0.001905933731748784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H6">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I6">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J6">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N6">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O6">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P6">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q6">
-        <v>37.64336144930974</v>
+        <v>40.1057808134015</v>
       </c>
       <c r="R6">
-        <v>37.64336144930974</v>
+        <v>240.634684880409</v>
       </c>
       <c r="S6">
-        <v>0.007048524157704418</v>
+        <v>0.006797851245745444</v>
       </c>
       <c r="T6">
-        <v>0.007048524157704418</v>
+        <v>0.005556963578260313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H7">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J7">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N7">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O7">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P7">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q7">
-        <v>1555.912383876338</v>
+        <v>1762.16840383891</v>
       </c>
       <c r="R7">
-        <v>1555.912383876338</v>
+        <v>15859.51563455019</v>
       </c>
       <c r="S7">
-        <v>0.2913365226373781</v>
+        <v>0.2986840908292897</v>
       </c>
       <c r="T7">
-        <v>0.2913365226373781</v>
+        <v>0.3662429245968625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H8">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J8">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N8">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P8">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q8">
-        <v>344.9837889989935</v>
+        <v>421.4195884148084</v>
       </c>
       <c r="R8">
-        <v>344.9837889989935</v>
+        <v>3792.776295733275</v>
       </c>
       <c r="S8">
-        <v>0.06459642489819137</v>
+        <v>0.0714297943086018</v>
       </c>
       <c r="T8">
-        <v>0.06459642489819137</v>
+        <v>0.08758637494986816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H9">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J9">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N9">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O9">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P9">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q9">
-        <v>51.01230676560107</v>
+        <v>62.43625135224501</v>
       </c>
       <c r="R9">
-        <v>51.01230676560107</v>
+        <v>561.9262621702051</v>
       </c>
       <c r="S9">
-        <v>0.009551789817223157</v>
+        <v>0.01058282223725485</v>
       </c>
       <c r="T9">
-        <v>0.009551789817223157</v>
+        <v>0.01297653234860827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H10">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J10">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N10">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O10">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P10">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q10">
-        <v>36.27615259095928</v>
+        <v>43.21894988528778</v>
       </c>
       <c r="R10">
-        <v>36.27615259095928</v>
+        <v>388.97054896759</v>
       </c>
       <c r="S10">
-        <v>0.00679252139132853</v>
+        <v>0.007325527302022765</v>
       </c>
       <c r="T10">
-        <v>0.00679252139132853</v>
+        <v>0.008982475550866826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H11">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J11">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N11">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O11">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P11">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q11">
-        <v>164.5953517593122</v>
+        <v>189.0145442120159</v>
       </c>
       <c r="R11">
-        <v>164.5953517593122</v>
+        <v>1134.087265272095</v>
       </c>
       <c r="S11">
-        <v>0.03081962578404756</v>
+        <v>0.0320375947999573</v>
       </c>
       <c r="T11">
-        <v>0.03081962578404756</v>
+        <v>0.02618941500813938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H12">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I12">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J12">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N12">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O12">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P12">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q12">
-        <v>1948.143453006133</v>
+        <v>5.199707798694001</v>
       </c>
       <c r="R12">
-        <v>1948.143453006133</v>
+        <v>46.79737018824601</v>
       </c>
       <c r="S12">
-        <v>0.3647797556463761</v>
+        <v>0.0008813402811260823</v>
       </c>
       <c r="T12">
-        <v>0.3647797556463761</v>
+        <v>0.001080689102752119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H13">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I13">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J13">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N13">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P13">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q13">
-        <v>431.9509998739455</v>
+        <v>1.243501311015</v>
       </c>
       <c r="R13">
-        <v>431.9509998739455</v>
+        <v>11.191511799135</v>
       </c>
       <c r="S13">
-        <v>0.08088058399502765</v>
+        <v>0.0002107710351158346</v>
       </c>
       <c r="T13">
-        <v>0.08088058399502765</v>
+        <v>0.0002584449680825166</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H14">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I14">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J14">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N14">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O14">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P14">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q14">
-        <v>63.87203577656254</v>
+        <v>0.184233392433</v>
       </c>
       <c r="R14">
-        <v>63.87203577656254</v>
+        <v>1.658100531897</v>
       </c>
       <c r="S14">
-        <v>0.01195970736511144</v>
+        <v>3.122719894385118E-05</v>
       </c>
       <c r="T14">
-        <v>0.01195970736511144</v>
+        <v>3.8290424630285E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H15">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I15">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J15">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N15">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O15">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P15">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q15">
-        <v>45.42103392368503</v>
+        <v>0.127528055934</v>
       </c>
       <c r="R15">
-        <v>45.42103392368503</v>
+        <v>1.147752503406</v>
       </c>
       <c r="S15">
-        <v>0.00850485298211529</v>
+        <v>2.161575554237191E-05</v>
       </c>
       <c r="T15">
-        <v>0.00850485298211529</v>
+        <v>2.650498560277791E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J16">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.8744765</v>
+      </c>
+      <c r="N16">
+        <v>43.748953</v>
+      </c>
+      <c r="O16">
+        <v>0.07626912299573232</v>
+      </c>
+      <c r="P16">
+        <v>0.05217246470638207</v>
+      </c>
+      <c r="Q16">
+        <v>0.5577335273205001</v>
+      </c>
+      <c r="R16">
+        <v>3.346401163923</v>
+      </c>
+      <c r="S16">
+        <v>9.45347397954849E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.727825851626425E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.070754</v>
+      </c>
+      <c r="H17">
+        <v>20.141508</v>
+      </c>
+      <c r="I17">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J17">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>203.934102</v>
+      </c>
+      <c r="N17">
+        <v>611.802306</v>
+      </c>
+      <c r="O17">
+        <v>0.7110513071461264</v>
+      </c>
+      <c r="P17">
+        <v>0.7295999567593805</v>
+      </c>
+      <c r="Q17">
+        <v>2053.770173452908</v>
+      </c>
+      <c r="R17">
+        <v>12322.62104071745</v>
+      </c>
+      <c r="S17">
+        <v>0.3481100192772333</v>
+      </c>
+      <c r="T17">
+        <v>0.2845656117529464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.070754</v>
+      </c>
+      <c r="H18">
+        <v>20.141508</v>
+      </c>
+      <c r="I18">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J18">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.770495</v>
+      </c>
+      <c r="N18">
+        <v>146.311485</v>
+      </c>
+      <c r="O18">
+        <v>0.1700467154822082</v>
+      </c>
+      <c r="P18">
+        <v>0.174482593613174</v>
+      </c>
+      <c r="Q18">
+        <v>491.1556576032301</v>
+      </c>
+      <c r="R18">
+        <v>2946.93394561938</v>
+      </c>
+      <c r="S18">
+        <v>0.0832499213623929</v>
+      </c>
+      <c r="T18">
+        <v>0.06805338395620077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="H16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="I16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="J16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>21.4552030574335</v>
-      </c>
-      <c r="N16">
-        <v>21.4552030574335</v>
-      </c>
-      <c r="O16">
-        <v>0.07645711730102409</v>
-      </c>
-      <c r="P16">
-        <v>0.07645711730102409</v>
-      </c>
-      <c r="Q16">
-        <v>206.088312072096</v>
-      </c>
-      <c r="R16">
-        <v>206.088312072096</v>
-      </c>
-      <c r="S16">
-        <v>0.03858896735927211</v>
-      </c>
-      <c r="T16">
-        <v>0.03858896735927211</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.070754</v>
+      </c>
+      <c r="H19">
+        <v>20.141508</v>
+      </c>
+      <c r="I19">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J19">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.225689</v>
+      </c>
+      <c r="N19">
+        <v>21.677067</v>
+      </c>
+      <c r="O19">
+        <v>0.02519360694505809</v>
+      </c>
+      <c r="P19">
+        <v>0.02585081322964185</v>
+      </c>
+      <c r="Q19">
+        <v>72.76813639950601</v>
+      </c>
+      <c r="R19">
+        <v>436.608818397036</v>
+      </c>
+      <c r="S19">
+        <v>0.0123340565036116</v>
+      </c>
+      <c r="T19">
+        <v>0.01008258349366961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.070754</v>
+      </c>
+      <c r="H20">
+        <v>20.141508</v>
+      </c>
+      <c r="I20">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J20">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.001688666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.005066</v>
+      </c>
+      <c r="O20">
+        <v>0.01743924743087499</v>
+      </c>
+      <c r="P20">
+        <v>0.01789417169142159</v>
+      </c>
+      <c r="Q20">
+        <v>50.370776146588</v>
+      </c>
+      <c r="R20">
+        <v>302.224656879528</v>
+      </c>
+      <c r="S20">
+        <v>0.00853774783666173</v>
+      </c>
+      <c r="T20">
+        <v>0.0069792574232032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.070754</v>
+      </c>
+      <c r="H21">
+        <v>20.141508</v>
+      </c>
+      <c r="I21">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J21">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>21.8744765</v>
+      </c>
+      <c r="N21">
+        <v>43.748953</v>
+      </c>
+      <c r="O21">
+        <v>0.07626912299573232</v>
+      </c>
+      <c r="P21">
+        <v>0.05217246470638207</v>
+      </c>
+      <c r="Q21">
+        <v>220.292471710281</v>
+      </c>
+      <c r="R21">
+        <v>881.169886841124</v>
+      </c>
+      <c r="S21">
+        <v>0.0373391422102341</v>
+      </c>
+      <c r="T21">
+        <v>0.02034880786146611</v>
       </c>
     </row>
   </sheetData>
